--- a/www/Template_ShinyPCRViz.xlsx
+++ b/www/Template_ShinyPCRViz.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Private Files\yladner\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Naki\Documents\Nakiwomiru\Dropbox\Career\AO foundation\AO\AO_PC\StemSec\Experiments\ShinyappAO-git\ShinyPCRViz\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B272C5A-4B84-43EA-963B-D937E85ACD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F84C71-F01A-4ACF-9DBB-60CB596CC9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="12624" xr2:uid="{C48404EE-32A5-4F8D-8A2F-84E92AA265F0}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="17253" windowHeight="9186" xr2:uid="{C48404EE-32A5-4F8D-8A2F-84E92AA265F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Yann</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{6EB29CF1-4230-4A23-860E-DFD365FD4734}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yann:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Columns A to D can contain words or numbers.
+(They will be converted to a categorical variable (factor) in R.)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F6209B30-1B3E-49AC-BBED-87069391EC68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Yann:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+This column must contain numbers (numeric values).</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -78,13 +137,26 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -422,23 +494,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365E8BD-3B79-416E-9020-425DEC4C8EB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7365E8BD-3B79-416E-9020-425DEC4C8EB5}">
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.08984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.6328125" customWidth="1"/>
+    <col min="1" max="1" width="12.05859375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.05859375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.8203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.3515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.64453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -455,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -472,7 +544,7 @@
         <v>8.71995582571253</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -489,7 +561,7 @@
         <v>9.2772954348474705</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -506,7 +578,7 @@
         <v>4.6741557768546</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -523,7 +595,7 @@
         <v>15.185067131649699</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -540,7 +612,7 @@
         <v>13.8385951286182</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -557,7 +629,7 @@
         <v>9.1894664764404297</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -574,7 +646,7 @@
         <v>14.654551042011001</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -591,7 +663,7 @@
         <v>11.4391278172843</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -608,7 +680,7 @@
         <v>14.2185264762957</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -625,7 +697,7 @@
         <v>17.037540538702199</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -642,7 +714,7 @@
         <v>18.034721707692398</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -659,7 +731,7 @@
         <v>12.556765899993501</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -676,7 +748,7 @@
         <v>15.7091294229031</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -693,7 +765,7 @@
         <v>7.6157537871040404</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -710,7 +782,7 @@
         <v>3.9331834721379</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -727,7 +799,7 @@
         <v>1.5057878592051599</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -744,7 +816,7 @@
         <v>11.3256998378783</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -761,7 +833,7 @@
         <v>4.9499344318173799</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -778,7 +850,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -795,7 +867,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -812,7 +884,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -829,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -846,7 +918,7 @@
         <v>16.494273219723301</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -863,7 +935,7 @@
         <v>2.6711881826631698</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -880,7 +952,7 @@
         <v>17.4119645517785</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -897,7 +969,7 @@
         <v>3.9315233549568802</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -914,7 +986,7 @@
         <v>2.5524384684395001</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -931,7 +1003,7 @@
         <v>18.964341043028998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -948,7 +1020,7 @@
         <v>10.9846267057583</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A31" t="s">
         <v>6</v>
       </c>
@@ -965,7 +1037,7 @@
         <v>13.810987706063299</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -982,7 +1054,7 @@
         <v>2.2862966912798601</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A33" t="s">
         <v>6</v>
       </c>
@@ -999,7 +1071,7 @@
         <v>16.535027755889999</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1088,7 @@
         <v>12.3942493414506</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A35" t="s">
         <v>6</v>
       </c>
@@ -1033,7 +1105,7 @@
         <v>4.2413810144644204</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1050,7 +1122,7 @@
         <v>6.6467693902086502</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1067,7 +1139,7 @@
         <v>13.0794910367113</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1084,7 +1156,7 @@
         <v>13.2499838692602</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A39" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1173,7 @@
         <v>7.8339811719488397</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1190,7 @@
         <v>4.0163748159538999</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1135,7 +1207,7 @@
         <v>10.364483876852301</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1152,7 +1224,7 @@
         <v>2.0636222772300199</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A43" t="s">
         <v>6</v>
       </c>
@@ -1169,7 +1241,7 @@
         <v>18.19499851414</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1186,7 +1258,7 @@
         <v>16.232705898815802</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1275,7 @@
         <v>5.4525152524001896</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1220,7 +1292,7 @@
         <v>18.641586903715499</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -1237,7 +1309,7 @@
         <v>10.7568874326535</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1326,7 @@
         <v>8.4784463404212094</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A49" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1343,7 @@
         <v>9.0401018711272592</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A50" t="s">
         <v>5</v>
       </c>
@@ -1288,7 +1360,7 @@
         <v>12.437214857433</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A51" t="s">
         <v>6</v>
       </c>
@@ -1305,7 +1377,7 @@
         <v>14.022153500234699</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A52" t="s">
         <v>5</v>
       </c>
@@ -1322,7 +1394,7 @@
         <v>11.9532232077327</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A53" t="s">
         <v>6</v>
       </c>
@@ -1339,7 +1411,7 @@
         <v>19.386635913979301</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A54" t="s">
         <v>5</v>
       </c>
@@ -1356,7 +1428,7 @@
         <v>9.4564232956618106</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A55" t="s">
         <v>6</v>
       </c>
@@ -1374,7 +1446,13 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2" xr:uid="{6E24AD2E-9B28-47B0-A0CE-69B71E212AF7}">
+      <formula1>ISNUMBER(E2:E1048576)</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1386,14 +1464,14 @@
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>4</v>
       </c>
